--- a/Crosswalk_2012/Crosswalk_Sedimentation.xlsx
+++ b/Crosswalk_2012/Crosswalk_Sedimentation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\2018IRFiles\2018_WQAssessment\Crosswalk_2012List\Final_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IR2018\Crosswalk_2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Station" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Crosswalk!$A$1:$H$279</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Crosswalk!$A$1:$H$277</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="251">
   <si>
     <t>RECORD_ID</t>
   </si>
@@ -1108,7 +1108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H279"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -5103,7 +5103,7 @@
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="E199" t="s">
         <v>10</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>23115</v>
+        <v>23116</v>
       </c>
       <c r="B200">
         <v>172</v>
@@ -5123,7 +5123,7 @@
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="E200" t="s">
         <v>10</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>23116</v>
+        <v>23117</v>
       </c>
       <c r="B201">
         <v>172</v>
@@ -5143,7 +5143,7 @@
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E201" t="s">
         <v>10</v>
@@ -5163,7 +5163,7 @@
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="E202" t="s">
         <v>10</v>
@@ -5183,7 +5183,7 @@
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E203" t="s">
         <v>10</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>23117</v>
+        <v>23118</v>
       </c>
       <c r="B204">
         <v>172</v>
@@ -5203,7 +5203,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E204" t="s">
         <v>10</v>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>23118</v>
+        <v>24361</v>
       </c>
       <c r="B205">
         <v>172</v>
@@ -5223,7 +5223,7 @@
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="E205" t="s">
         <v>10</v>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>23118</v>
+        <v>24362</v>
       </c>
       <c r="B206">
         <v>172</v>
@@ -5243,7 +5243,7 @@
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="E206" t="s">
         <v>10</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>24361</v>
+        <v>24362</v>
       </c>
       <c r="B207">
         <v>172</v>
@@ -5263,7 +5263,7 @@
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E207" t="s">
         <v>10</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>24362</v>
+        <v>24382</v>
       </c>
       <c r="B208">
         <v>172</v>
@@ -5283,7 +5283,7 @@
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="E208" t="s">
         <v>10</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>24362</v>
+        <v>24386</v>
       </c>
       <c r="B209">
         <v>172</v>
@@ -5303,7 +5303,7 @@
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E209" t="s">
         <v>10</v>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>24382</v>
+        <v>24392</v>
       </c>
       <c r="B210">
         <v>172</v>
@@ -5323,7 +5323,7 @@
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="E210" t="s">
         <v>10</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>24386</v>
+        <v>24399</v>
       </c>
       <c r="B211">
         <v>172</v>
@@ -5343,7 +5343,7 @@
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E211" t="s">
         <v>10</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>24392</v>
+        <v>24399</v>
       </c>
       <c r="B212">
         <v>172</v>
@@ -5363,7 +5363,7 @@
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="E212" t="s">
         <v>10</v>
@@ -5383,7 +5383,7 @@
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E213" t="s">
         <v>10</v>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>24399</v>
+        <v>24416</v>
       </c>
       <c r="B214">
         <v>172</v>
@@ -5403,7 +5403,7 @@
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E214" t="s">
         <v>10</v>
@@ -5414,7 +5414,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>24399</v>
+        <v>24416</v>
       </c>
       <c r="B215">
         <v>172</v>
@@ -5423,7 +5423,7 @@
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E215" t="s">
         <v>10</v>
@@ -5443,7 +5443,7 @@
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E216" t="s">
         <v>10</v>
@@ -5454,7 +5454,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>24416</v>
+        <v>24417</v>
       </c>
       <c r="B217">
         <v>172</v>
@@ -5463,7 +5463,7 @@
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="E217" t="s">
         <v>10</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>24416</v>
+        <v>24418</v>
       </c>
       <c r="B218">
         <v>172</v>
@@ -5483,7 +5483,7 @@
         <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E218" t="s">
         <v>10</v>
@@ -5494,7 +5494,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>24417</v>
+        <v>24418</v>
       </c>
       <c r="B219">
         <v>172</v>
@@ -5503,7 +5503,7 @@
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="E219" t="s">
         <v>10</v>
@@ -5523,7 +5523,7 @@
         <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E220" t="s">
         <v>10</v>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>24418</v>
+        <v>24421</v>
       </c>
       <c r="B221">
         <v>172</v>
@@ -5543,7 +5543,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E221" t="s">
         <v>10</v>
@@ -5554,7 +5554,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>24418</v>
+        <v>24422</v>
       </c>
       <c r="B222">
         <v>172</v>
@@ -5563,7 +5563,7 @@
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E222" t="s">
         <v>10</v>
@@ -5574,7 +5574,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>24421</v>
+        <v>24423</v>
       </c>
       <c r="B223">
         <v>172</v>
@@ -5583,7 +5583,7 @@
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E223" t="s">
         <v>10</v>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>24422</v>
+        <v>24424</v>
       </c>
       <c r="B224">
         <v>172</v>
@@ -5603,7 +5603,7 @@
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="E224" t="s">
         <v>10</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>24423</v>
+        <v>24431</v>
       </c>
       <c r="B225">
         <v>172</v>
@@ -5623,7 +5623,7 @@
         <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="E225" t="s">
         <v>10</v>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>24424</v>
+        <v>24431</v>
       </c>
       <c r="B226">
         <v>172</v>
@@ -5643,7 +5643,7 @@
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="E226" t="s">
         <v>10</v>
@@ -5654,7 +5654,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>24431</v>
+        <v>24432</v>
       </c>
       <c r="B227">
         <v>172</v>
@@ -5663,7 +5663,7 @@
         <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="E227" t="s">
         <v>10</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>24431</v>
+        <v>24433</v>
       </c>
       <c r="B228">
         <v>172</v>
@@ -5683,7 +5683,7 @@
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E228" t="s">
         <v>10</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>24432</v>
+        <v>24441</v>
       </c>
       <c r="B229">
         <v>172</v>
@@ -5703,7 +5703,7 @@
         <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="E229" t="s">
         <v>10</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>24433</v>
+        <v>24442</v>
       </c>
       <c r="B230">
         <v>172</v>
@@ -5723,7 +5723,7 @@
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="E230" t="s">
         <v>10</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>24441</v>
+        <v>24443</v>
       </c>
       <c r="B231">
         <v>172</v>
@@ -5742,19 +5742,13 @@
       <c r="C231" t="s">
         <v>8</v>
       </c>
-      <c r="D231" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E231" t="s">
-        <v>10</v>
-      </c>
-      <c r="F231" t="s">
-        <v>92</v>
+      <c r="G231" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>24442</v>
+        <v>24444</v>
       </c>
       <c r="B232">
         <v>172</v>
@@ -5763,7 +5757,7 @@
         <v>8</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="E232" t="s">
         <v>10</v>
@@ -5774,7 +5768,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>24443</v>
+        <v>24445</v>
       </c>
       <c r="B233">
         <v>172</v>
@@ -5782,13 +5776,19 @@
       <c r="C233" t="s">
         <v>8</v>
       </c>
-      <c r="G233" t="s">
-        <v>250</v>
+      <c r="D233" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E233" t="s">
+        <v>10</v>
+      </c>
+      <c r="F233" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>24444</v>
+        <v>24445</v>
       </c>
       <c r="B234">
         <v>172</v>
@@ -5797,7 +5797,7 @@
         <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E234" t="s">
         <v>10</v>
@@ -5817,7 +5817,7 @@
         <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="E235" t="s">
         <v>10</v>
@@ -5837,7 +5837,7 @@
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E236" t="s">
         <v>10</v>
@@ -5857,7 +5857,7 @@
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E237" t="s">
         <v>10</v>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>24445</v>
+        <v>24446</v>
       </c>
       <c r="B238">
         <v>172</v>
@@ -5877,7 +5877,7 @@
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E238" t="s">
         <v>10</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>24445</v>
+        <v>24446</v>
       </c>
       <c r="B239">
         <v>172</v>
@@ -5897,7 +5897,7 @@
         <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E239" t="s">
         <v>10</v>
@@ -5917,7 +5917,7 @@
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E240" t="s">
         <v>10</v>
@@ -5937,7 +5937,7 @@
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E241" t="s">
         <v>10</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>24446</v>
+        <v>24447</v>
       </c>
       <c r="B242">
         <v>172</v>
@@ -5957,7 +5957,7 @@
         <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="E242" t="s">
         <v>10</v>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>24446</v>
+        <v>24447</v>
       </c>
       <c r="B243">
         <v>172</v>
@@ -5977,7 +5977,7 @@
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E243" t="s">
         <v>10</v>
@@ -5988,7 +5988,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>24447</v>
+        <v>24478</v>
       </c>
       <c r="B244">
         <v>172</v>
@@ -5997,7 +5997,7 @@
         <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E244" t="s">
         <v>10</v>
@@ -6008,7 +6008,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>24447</v>
+        <v>24478</v>
       </c>
       <c r="B245">
         <v>172</v>
@@ -6017,7 +6017,7 @@
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E245" t="s">
         <v>10</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>24478</v>
+        <v>24483</v>
       </c>
       <c r="B246">
         <v>172</v>
@@ -6037,7 +6037,7 @@
         <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E246" t="s">
         <v>10</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>24478</v>
+        <v>24483</v>
       </c>
       <c r="B247">
         <v>172</v>
@@ -6057,7 +6057,7 @@
         <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E247" t="s">
         <v>10</v>
@@ -6077,7 +6077,7 @@
         <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="E248" t="s">
         <v>10</v>
@@ -6097,7 +6097,7 @@
         <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E249" t="s">
         <v>10</v>
@@ -6117,7 +6117,7 @@
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E250" t="s">
         <v>10</v>
@@ -6137,7 +6137,7 @@
         <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E251" t="s">
         <v>10</v>
@@ -6157,7 +6157,7 @@
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E252" t="s">
         <v>10</v>
@@ -6177,7 +6177,7 @@
         <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E253" t="s">
         <v>10</v>
@@ -6197,7 +6197,7 @@
         <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E254" t="s">
         <v>10</v>
@@ -6217,7 +6217,7 @@
         <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E255" t="s">
         <v>10</v>
@@ -6237,7 +6237,7 @@
         <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E256" t="s">
         <v>10</v>
@@ -6257,7 +6257,7 @@
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E257" t="s">
         <v>10</v>
@@ -6277,7 +6277,7 @@
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E258" t="s">
         <v>10</v>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>24483</v>
+        <v>24484</v>
       </c>
       <c r="B259">
         <v>172</v>
@@ -6297,7 +6297,7 @@
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="E259" t="s">
         <v>10</v>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>24483</v>
+        <v>24484</v>
       </c>
       <c r="B260">
         <v>172</v>
@@ -6317,7 +6317,7 @@
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E260" t="s">
         <v>10</v>
@@ -6337,7 +6337,7 @@
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="E261" t="s">
         <v>10</v>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>24484</v>
+        <v>24488</v>
       </c>
       <c r="B262">
         <v>172</v>
@@ -6356,19 +6356,13 @@
       <c r="C262" t="s">
         <v>8</v>
       </c>
-      <c r="D262" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E262" t="s">
-        <v>10</v>
-      </c>
-      <c r="F262" t="s">
-        <v>92</v>
+      <c r="G262" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <v>24484</v>
+        <v>24495</v>
       </c>
       <c r="B263">
         <v>172</v>
@@ -6377,7 +6371,7 @@
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>238</v>
+        <v>46</v>
       </c>
       <c r="E263" t="s">
         <v>10</v>
@@ -6388,7 +6382,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>24488</v>
+        <v>24495</v>
       </c>
       <c r="B264">
         <v>172</v>
@@ -6396,8 +6390,14 @@
       <c r="C264" t="s">
         <v>8</v>
       </c>
-      <c r="G264" t="s">
-        <v>250</v>
+      <c r="D264" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E264" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -6411,7 +6411,7 @@
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="E265" t="s">
         <v>10</v>
@@ -6422,7 +6422,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>24495</v>
+        <v>24499</v>
       </c>
       <c r="B266">
         <v>172</v>
@@ -6431,7 +6431,7 @@
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="E266" t="s">
         <v>10</v>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <v>24495</v>
+        <v>24743</v>
       </c>
       <c r="B267">
         <v>172</v>
@@ -6451,7 +6451,7 @@
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="E267" t="s">
         <v>10</v>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <v>24499</v>
+        <v>24743</v>
       </c>
       <c r="B268">
         <v>172</v>
@@ -6471,7 +6471,7 @@
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="E268" t="s">
         <v>10</v>
@@ -6491,7 +6491,7 @@
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="E269" t="s">
         <v>10</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
-        <v>24743</v>
+        <v>26009</v>
       </c>
       <c r="B270">
         <v>172</v>
@@ -6510,8 +6510,8 @@
       <c r="C270" t="s">
         <v>8</v>
       </c>
-      <c r="D270" s="2" t="s">
-        <v>241</v>
+      <c r="D270" t="s">
+        <v>243</v>
       </c>
       <c r="E270" t="s">
         <v>10</v>
@@ -6522,7 +6522,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
-        <v>24743</v>
+        <v>26009</v>
       </c>
       <c r="B271">
         <v>172</v>
@@ -6530,8 +6530,8 @@
       <c r="C271" t="s">
         <v>8</v>
       </c>
-      <c r="D271" s="2" t="s">
-        <v>242</v>
+      <c r="D271" t="s">
+        <v>244</v>
       </c>
       <c r="E271" t="s">
         <v>10</v>
@@ -6551,7 +6551,7 @@
         <v>8</v>
       </c>
       <c r="D272" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E272" t="s">
         <v>10</v>
@@ -6571,7 +6571,7 @@
         <v>8</v>
       </c>
       <c r="D273" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E273" t="s">
         <v>10</v>
@@ -6591,7 +6591,7 @@
         <v>8</v>
       </c>
       <c r="D274" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E274" t="s">
         <v>10</v>
@@ -6611,7 +6611,7 @@
         <v>8</v>
       </c>
       <c r="D275" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E275" t="s">
         <v>10</v>
@@ -6631,7 +6631,7 @@
         <v>8</v>
       </c>
       <c r="D276" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E276" t="s">
         <v>10</v>
@@ -6651,52 +6651,12 @@
         <v>8</v>
       </c>
       <c r="D277" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E277" t="s">
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
-        <v>26009</v>
-      </c>
-      <c r="B278">
-        <v>172</v>
-      </c>
-      <c r="C278" t="s">
-        <v>8</v>
-      </c>
-      <c r="D278" t="s">
-        <v>248</v>
-      </c>
-      <c r="E278" t="s">
-        <v>10</v>
-      </c>
-      <c r="F278" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
-        <v>26009</v>
-      </c>
-      <c r="B279">
-        <v>172</v>
-      </c>
-      <c r="C279" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" t="s">
-        <v>249</v>
-      </c>
-      <c r="E279" t="s">
-        <v>10</v>
-      </c>
-      <c r="F279" t="s">
         <v>92</v>
       </c>
     </row>
